--- a/Data/TestData Scenario1.xlsx
+++ b/Data/TestData Scenario1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priscilla.d\Documents\UiPath\TestAutomationFramework_Sample\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5624F0E-9A18-44C5-BFEF-44E9B4E70CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B50D3-CE23-48B2-8930-5B79157D0504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8FF6E28-2E1E-4A70-B66D-CC35AC6C73EF}"/>
   </bookViews>
@@ -36,18 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>CALVIN KLEIN JEANS</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>Quantity1</t>
+  </si>
+  <si>
+    <t>Quantity2</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>Sling bag</t>
+  </si>
+  <si>
+    <t>Duffle Bags</t>
+  </si>
+  <si>
+    <t>BagName2</t>
+  </si>
+  <si>
+    <t>BagName1</t>
+  </si>
+  <si>
+    <t>FLYING MACHINE</t>
   </si>
 </sst>
 </file>
@@ -63,18 +84,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,15 +117,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,43 +466,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF5605-78E5-4CD3-89AE-0FEF13F82169}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -488,8 +529,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.nnnow.com/calvin-klein-jeans" xr:uid="{CF3B8AFF-07AA-483F-8223-ACB96FE8B291}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://flyingmachine.nnnow.com/" xr:uid="{E625F26A-E2C5-47B4-847D-0583002D5480}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.nnnow.com/calvin-klein-jeans" xr:uid="{918BBCF8-F5B3-478D-AF7C-23EACD3CDCE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>